--- a/classfiers/greedy/knn/nearmiss/greedy-knn-nearmiss-results.xlsx
+++ b/classfiers/greedy/knn/nearmiss/greedy-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7222222222222223</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.9</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.780952380952381</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/knn/nearmiss/greedy-knn-nearmiss-results.xlsx
+++ b/classfiers/greedy/knn/nearmiss/greedy-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C2" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.8333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.780952380952381</v>
+        <v>0.82</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.788888888888889</v>
       </c>
     </row>
   </sheetData>
